--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -445,6 +445,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
+      <c r="F2" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>05</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -449,7 +449,7 @@
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
       <c r="F2" t="str">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +512,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05</v>
+        <v>050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>050</v>
+        <v>0500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0500</v>
+        <v>0501</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -457,7 +457,7 @@
         <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0501</v>
+        <v>05010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05010</v>
+        <v>050100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -464,6 +464,9 @@
       <c r="C4" t="str">
         <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
       </c>
+      <c r="F4" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -525,7 +528,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>050100</v>
+        <v>0501015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,9 +468,62 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>479_绿铃草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F5" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F6" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F7" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F8" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="str">
+        <v>598_梦幻芭蕉叶_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠朱白色_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -528,7 +581,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0501015</v>
+        <v>0501015202020150000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,6 +493,9 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <v>2</v>
+      </c>
       <c r="C8" t="str">
         <v>431_小米果_undefined_undefined_1bunch</v>
       </c>
@@ -504,15 +507,24 @@
       <c r="C9" t="str">
         <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
       </c>
+      <c r="F9" t="str">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
         <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
       </c>
+      <c r="F10" t="str">
+        <v>30</v>
+      </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
         <v>598_梦幻芭蕉叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F11" t="str">
+        <v>10</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
@@ -520,10 +532,29 @@
         <v xml:space="preserve">510_翠朱白色_Didiscus caeruleus 
 white_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -581,7 +612,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0501015202020150000</v>
+        <v>050101520202015203010101030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -614,6 +614,9 @@
       <c r="G2" t="str">
         <v>050101520202015203010101030</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -552,9 +552,384 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F19" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F20" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F26" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>4</v>
+      </c>
+      <c r="C27" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>303_彩星 粉_Tinted Gypso pink_undefined_0.5kg</v>
+      </c>
+      <c r="F32" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>385_松虫草深紫_scabiosa dark purple_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>515_松虫草红色_scabiosa red_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F38" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>5</v>
+      </c>
+      <c r="C40" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F44" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>6</v>
+      </c>
+      <c r="C45" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F49" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>7</v>
+      </c>
+      <c r="C50" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>147_纳欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>266_诺莎丽_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F55" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8</v>
+      </c>
+      <c r="C56" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L58"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -612,10 +987,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>050101520202015203010101030</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>05010152020201520301010103010101010203055201021510151010104010101010103581218108536476472065682020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-10.xlsx
+++ b/DateBase/orders/dang_2024-10-10.xlsx
@@ -989,6 +989,9 @@
       <c r="G2" t="str">
         <v>05010152020201520301010103010101010203055201021510151010104010101010103581218108536476472065682020</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
